--- a/03.crawler/01.RockAuto/file/5.collate/crawler_1-vehicle.xlsx
+++ b/03.crawler/01.RockAuto/file/5.collate/crawler_1-vehicle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,40 +436,22 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>JOIN_MPNTCPC</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Part Number</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>JOIN_MPNTCPC</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>Vehicle</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>MELLING;30250S;5756;8304960</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
-        <is>
-          <t>30250S</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>MELLING;30250S;5756;8304960</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
         <is>
           <t>MAZDA 3 2004-2007
 MAZDA 5 2006-2007
@@ -478,20 +460,12 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>MELLING;30250SX;5756;11158045</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
-        <is>
-          <t>30250SX</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>MELLING;30250SX;5756;11158045</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
         <is>
           <t>MAZDA 3 2004-2007
 MAZDA 5 2006-2007
@@ -500,20 +474,12 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MELLING;30420S;5756;8304968</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
-        <is>
-          <t>30420S</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>MELLING;30420S;5756;8304968</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
         <is>
           <t>PONTIAC VIBE 2003-2006
 TOYOTA CELICA 2000-2005
@@ -523,20 +489,12 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>MELLING;30430S;5756;8304972</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
-        <is>
-          <t>30430S</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>MELLING;30430S;5756;8304972</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
         <is>
           <t>NISSAN CUBE 2009-2012
 NISSAN NV200 2013-2017
@@ -547,20 +505,12 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MELLING;30460S;5756;8304976</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
-        <is>
-          <t>30460S</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>MELLING;30460S;5756;8304976</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
         <is>
           <t>INFINITI QX56 2004-2010
 NISSAN ARMADA 2005-2015
@@ -572,20 +522,12 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MELLING;30460SA;5756;9658980</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
-        <is>
-          <t>30460SA</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>MELLING;30460SA;5756;9658980</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
         <is>
           <t>INFINITI QX56 2004-2006
 NISSAN ARMADA 2005-2006
@@ -595,20 +537,12 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>MELLING;30460SB;5756;9658984</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
-        <is>
-          <t>30460SB</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>MELLING;30460SB;5756;9658984</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
         <is>
           <t>INFINITI QX56 2007-2010
 NISSAN ARMADA 2007-2015
@@ -620,20 +554,12 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>MELLING;30470S;5756;8304980</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
-        <is>
-          <t>30470S</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>MELLING;30470S;5756;8304980</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
         <is>
           <t>TOYOTA 4RUNNER 2003-2009
 TOYOTA FJ CRUISER 2007-2009
@@ -643,20 +569,12 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MELLING;30470SX;5756;10110000</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
-        <is>
-          <t>30470SX</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>MELLING;30470SX;5756;10110000</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
         <is>
           <t>TOYOTA 4RUNNER 2003-2009
 TOYOTA FJ CRUISER 2007-2009
@@ -666,20 +584,12 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MELLING;30490S;5756;8304984</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
-        <is>
-          <t>30490S</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>MELLING;30490S;5756;8304984</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
         <is>
           <t>LEXUS ES350 2007-2015
 LEXUS GS300 2006
